--- a/mseplots_amp_sbmir.xlsx
+++ b/mseplots_amp_sbmir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darkroom\Joshua\mainlatest\FRCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98A47A5-70EB-4CCD-A18A-080877192864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214A7FAD-3603-479F-A855-DDF478F31685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{74336ACA-2E80-4774-B53D-FE938F0D9E35}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{181DF939-437F-4801-A272-FB7E58917727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1ECB72-EEC7-4B2E-BF7F-D267DBB3A8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AAD26-D14A-42FB-A291-2B648F2C1DCF}">
   <dimension ref="A2:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11.752322230624102</v>
+        <v>5.5706790986700989</v>
       </c>
       <c r="C2">
-        <v>10.802028201343994</v>
+        <v>4.5650211617135099</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.827261961002732</v>
+        <v>5.13259838988757</v>
       </c>
       <c r="C3">
-        <v>10.169044334710692</v>
+        <v>4.2343124875797731</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10.398104892042854</v>
+        <v>4.9113121974754979</v>
       </c>
       <c r="C4">
-        <v>9.8515053339718754</v>
+        <v>4.0516018955699105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.142076030895213</v>
+        <v>4.7935967397444488</v>
       </c>
       <c r="C5">
-        <v>9.6642182791274447</v>
+        <v>3.9059972964926515</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9.946622274956189</v>
+        <v>4.6981766541577175</v>
       </c>
       <c r="C6">
-        <v>9.5169545100670181</v>
+        <v>3.792662800229837</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.808436620506086</v>
+        <v>4.6226533146884048</v>
       </c>
       <c r="C7">
-        <v>9.3989997219124053</v>
+        <v>3.7140137278324765</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9.7156965023586324</v>
+        <v>4.5614987824388944</v>
       </c>
       <c r="C8">
-        <v>9.283758869683961</v>
+        <v>3.6457079803384609</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +492,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9.6416909025248252</v>
+        <v>4.5114973558479337</v>
       </c>
       <c r="C9">
-        <v>9.1606870640187879</v>
+        <v>3.5798624487386967</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9.5782839907667299</v>
+        <v>4.4611509836029946</v>
       </c>
       <c r="C10">
-        <v>9.0264753849956332</v>
+        <v>3.5223925271391359</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.5104041686668292</v>
+        <v>4.4189451377261619</v>
       </c>
       <c r="C11">
-        <v>8.8846691722227771</v>
+        <v>3.488096516294219</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.4613868443548128</v>
+        <v>4.3747457624701909</v>
       </c>
       <c r="C12">
-        <v>8.7344552545423202</v>
+        <v>3.4583802989709067</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9.4159982642081559</v>
+        <v>4.3344313356526945</v>
       </c>
       <c r="C13">
-        <v>8.5801843100274606</v>
+        <v>3.4205670873082603</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +547,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9.3651654324216747</v>
+        <v>4.2950558816636661</v>
       </c>
       <c r="C14">
-        <v>8.4248729304811807</v>
+        <v>3.3893071007910787</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9.3126564012093702</v>
+        <v>4.2530947951999165</v>
       </c>
       <c r="C15">
-        <v>8.2491768331444675</v>
+        <v>3.3708334732083269</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9.2917172523587972</v>
+        <v>4.2127676332542476</v>
       </c>
       <c r="C16">
-        <v>8.0725175105992335</v>
+        <v>3.3534778695423508</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.2601656331091444</v>
+        <v>4.1724284005956447</v>
       </c>
       <c r="C17">
-        <v>7.9160371703297621</v>
+        <v>3.3354065125423937</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.2404486975597795</v>
+        <v>4.1296030469098852</v>
       </c>
       <c r="C18">
-        <v>7.7511471168346109</v>
+        <v>3.3219494528838385</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>9.2068098234192686</v>
+        <v>4.0919519596689318</v>
       </c>
       <c r="C19">
-        <v>7.604592344222076</v>
+        <v>3.3045012588360221</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9.1904087218237152</v>
+        <v>4.0502149786118284</v>
       </c>
       <c r="C20">
-        <v>7.507477048105466</v>
+        <v>3.2950282428881899</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +624,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.1627754526801404</v>
+        <v>4.007941274504895</v>
       </c>
       <c r="C21">
-        <v>7.4212807349700451</v>
+        <v>3.2865418914970843</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +635,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9.1344549568964766</v>
+        <v>3.9716595553467067</v>
       </c>
       <c r="C22">
-        <v>7.3454073359697478</v>
+        <v>3.2785519180292586</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9.1147501272602192</v>
+        <v>3.9311882123383919</v>
       </c>
       <c r="C23">
-        <v>7.2698956875032721</v>
+        <v>3.2731285268422239</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +657,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9.0888670931596174</v>
+        <v>3.8962636299230189</v>
       </c>
       <c r="C24">
-        <v>7.1962449690924668</v>
+        <v>3.2689719083291298</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9.0701585484977407</v>
+        <v>3.8649263167586794</v>
       </c>
       <c r="C25">
-        <v>7.1294741900870813</v>
+        <v>3.2629232503796164</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +679,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9.0385284182755328</v>
+        <v>3.831760399712556</v>
       </c>
       <c r="C26">
-        <v>7.0776499590351953</v>
+        <v>3.2521354875912039</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>9.0189128311266824</v>
+        <v>3.804832281839857</v>
       </c>
       <c r="C27">
-        <v>7.029182937182803</v>
+        <v>3.2422950575795086</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>9.0074486972546577</v>
+        <v>3.7765489597849604</v>
       </c>
       <c r="C28">
-        <v>6.9847556372822313</v>
+        <v>3.2306453270122724</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8.9924414842694986</v>
+        <v>3.7518251097140047</v>
       </c>
       <c r="C29">
-        <v>6.9457622029326922</v>
+        <v>3.2239798702812594</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +723,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8.9761453886494706</v>
+        <v>3.7293035169781348</v>
       </c>
       <c r="C30">
-        <v>6.9111410861302893</v>
+        <v>3.2196557008481501</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>8.9666670380724192</v>
+        <v>3.7076235878746933</v>
       </c>
       <c r="C31">
-        <v>6.8779863474314267</v>
+        <v>3.2165220063640483</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +745,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>8.9554367607152745</v>
+        <v>3.6887594912336907</v>
       </c>
       <c r="C32">
-        <v>6.8488817273172184</v>
+        <v>3.213455026261653</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>8.9415582388315098</v>
+        <v>3.675526342950469</v>
       </c>
       <c r="C33">
-        <v>6.8177696101793206</v>
+        <v>3.2094398898763985</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>8.9235212236573584</v>
+        <v>3.6600614325525087</v>
       </c>
       <c r="C34">
-        <v>6.7880775145613326</v>
+        <v>3.2064231474044931</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +778,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>8.8827943510850087</v>
+        <v>3.6459102494866484</v>
       </c>
       <c r="C35">
-        <v>6.7572144931156322</v>
+        <v>3.2029251784858799</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>8.8549107002632148</v>
+        <v>3.634012895307456</v>
       </c>
       <c r="C36">
-        <v>6.7306426106183288</v>
+        <v>3.1987527541060503</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>8.8351872561197364</v>
+        <v>3.6219049200973163</v>
       </c>
       <c r="C37">
-        <v>6.7147878174866129</v>
+        <v>3.1955803614368459</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +811,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>8.8121821020094213</v>
+        <v>3.6122735124099448</v>
       </c>
       <c r="C38">
-        <v>6.6984008256759351</v>
+        <v>3.193225377822003</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>8.800557635392904</v>
+        <v>3.6039496483845528</v>
       </c>
       <c r="C39">
-        <v>6.684532487092695</v>
+        <v>3.1912577098986707</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>8.7832322651707599</v>
+        <v>3.5941281193791794</v>
       </c>
       <c r="C40">
-        <v>6.6717151884535646</v>
+        <v>3.1900018979575271</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>8.7747971174410324</v>
+        <v>3.5864768688923414</v>
       </c>
       <c r="C41">
-        <v>6.6612901665714936</v>
+        <v>3.1888411407358648</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8.763513833430709</v>
+        <v>3.581636982177987</v>
       </c>
       <c r="C42">
-        <v>6.6476907525892726</v>
+        <v>3.1877112672170607</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>8.7474247377936045</v>
+        <v>3.5740617711998883</v>
       </c>
       <c r="C43">
-        <v>6.6358352537348946</v>
+        <v>3.1859367684258895</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>8.7200084607543289</v>
+        <v>3.5631794739279532</v>
       </c>
       <c r="C44">
-        <v>6.6223988659256152</v>
+        <v>3.1839646661109837</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,10 +888,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>8.7142827461501646</v>
+        <v>3.5556217068971163</v>
       </c>
       <c r="C45">
-        <v>6.6102679926072403</v>
+        <v>3.1814789546555091</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,10 +899,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>8.687365488075093</v>
+        <v>3.5494023921882754</v>
       </c>
       <c r="C46">
-        <v>6.595631846820182</v>
+        <v>3.1766060860546217</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,10 +910,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>8.6817441252720737</v>
+        <v>3.5438567721713112</v>
       </c>
       <c r="C47">
-        <v>6.5807507121422475</v>
+        <v>3.1744277437540172</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,10 +921,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>8.6657039356476577</v>
+        <v>3.5368924935488333</v>
       </c>
       <c r="C48">
-        <v>6.5637716587672026</v>
+        <v>3.1713216687644956</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,10 +932,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>8.6438429408402708</v>
+        <v>3.5280328113898531</v>
       </c>
       <c r="C49">
-        <v>6.5519815901523017</v>
+        <v>3.1624636247841886</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>8.6235238778814001</v>
+        <v>3.5192968249848984</v>
       </c>
       <c r="C50">
-        <v>6.5424075398372903</v>
+        <v>3.1540810070220937</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>8.6045039570907758</v>
+        <v>3.5120493362403904</v>
       </c>
       <c r="C51">
-        <v>6.5287833595763001</v>
+        <v>3.1510193119402516</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>8.5906352737997302</v>
+        <v>3.5060555422879518</v>
       </c>
       <c r="C52">
-        <v>6.5188067613030576</v>
+        <v>3.1479421418916469</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,10 +976,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>8.5795650278989282</v>
+        <v>3.4983651123151298</v>
       </c>
       <c r="C53">
-        <v>6.5090424187065947</v>
+        <v>3.1441652490345398</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,10 +987,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>8.5577857749303892</v>
+        <v>3.4897027743429532</v>
       </c>
       <c r="C54">
-        <v>6.5024220594213329</v>
+        <v>3.1370352830667851</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,10 +998,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>8.5366903002065229</v>
+        <v>3.4829462767991322</v>
       </c>
       <c r="C55">
-        <v>6.4953630917040757</v>
+        <v>3.1330964428164441</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,10 +1009,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>8.5177629775250239</v>
+        <v>3.4783957635708074</v>
       </c>
       <c r="C56">
-        <v>6.4883522112915895</v>
+        <v>3.1306699375352265</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,10 +1020,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>8.4994213350622694</v>
+        <v>3.4731577462901946</v>
       </c>
       <c r="C57">
-        <v>6.4822927757998627</v>
+        <v>3.1288118218595309</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,10 +1031,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>8.4798654182044988</v>
+        <v>3.4706518344424131</v>
       </c>
       <c r="C58">
-        <v>6.4769510312232033</v>
+        <v>3.1268698747049632</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>8.4663474745506946</v>
+        <v>3.4677872182654688</v>
       </c>
       <c r="C59">
-        <v>6.4688061253548197</v>
+        <v>3.1252008166701661</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>8.460224775502974</v>
+        <v>3.4669054006567808</v>
       </c>
       <c r="C60">
-        <v>6.4622108562624199</v>
+        <v>3.1233353041731324</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>8.4509263993252137</v>
+        <v>3.4634875782858359</v>
       </c>
       <c r="C61">
-        <v>6.4558522305915513</v>
+        <v>3.1214128772762568</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1075,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>8.4297842158475582</v>
+        <v>3.4569325148054855</v>
       </c>
       <c r="C62">
-        <v>6.4520883159319853</v>
+        <v>3.1198946609884568</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>8.4141717482961234</v>
+        <v>3.4492595824696162</v>
       </c>
       <c r="C63">
-        <v>6.4472554532464308</v>
+        <v>3.1182442227316467</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>8.3925698738001682</v>
+        <v>3.4439847757144717</v>
       </c>
       <c r="C64">
-        <v>6.4457620121493786</v>
+        <v>3.1170951070602384</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,10 +1108,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>8.3692738142354166</v>
+        <v>3.4421727410269591</v>
       </c>
       <c r="C65">
-        <v>6.442043952487051</v>
+        <v>3.1153328456899647</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>8.3459200928633255</v>
+        <v>3.4405564223348186</v>
       </c>
       <c r="C66">
-        <v>6.4387175693464123</v>
+        <v>3.1129074398458125</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>8.3220754054313382</v>
+        <v>3.4371821926057127</v>
       </c>
       <c r="C67">
-        <v>6.4351545842454012</v>
+        <v>3.1115907800029539</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,10 +1141,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>8.3041357736842603</v>
+        <v>3.4369251372209355</v>
       </c>
       <c r="C68">
-        <v>6.4306265237433298</v>
+        <v>3.110198944935024</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>8.2951276277555603</v>
+        <v>3.4342646439132012</v>
       </c>
       <c r="C69">
-        <v>6.4260963325397249</v>
+        <v>3.1070026140615439</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,10 +1163,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>8.2760179999632175</v>
+        <v>3.4349338723677607</v>
       </c>
       <c r="C70">
-        <v>6.4239028420419633</v>
+        <v>3.104883085027565</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,10 +1174,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>8.2523726811682891</v>
+        <v>3.4310149646376242</v>
       </c>
       <c r="C71">
-        <v>6.4210042398861935</v>
+        <v>3.1005033991901376</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,10 +1185,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>8.2390415995795578</v>
+        <v>3.4292014800063155</v>
       </c>
       <c r="C72">
-        <v>6.4188188686483754</v>
+        <v>3.0971016286549569</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,10 +1196,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>8.2181583116059986</v>
+        <v>3.4306056017606226</v>
       </c>
       <c r="C73">
-        <v>6.4180514968638667</v>
+        <v>3.0964914757046405</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>8.1897685434155729</v>
+        <v>3.4274898109083982</v>
       </c>
       <c r="C74">
-        <v>6.4156159296483111</v>
+        <v>3.0957991763770258</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,10 +1218,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>8.1596728236340095</v>
+        <v>3.4241089550913677</v>
       </c>
       <c r="C75">
-        <v>6.4123130643016397</v>
+        <v>3.0948902857692233</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>8.1487052248910441</v>
+        <v>3.4222060548616771</v>
       </c>
       <c r="C76">
-        <v>6.4099962747551285</v>
+        <v>3.094231310544556</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>8.1251936805503391</v>
+        <v>3.4205917056034241</v>
       </c>
       <c r="C77">
-        <v>6.4082170420057958</v>
+        <v>3.0938490884779566</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>8.0990669203176253</v>
+        <v>3.4188007835795147</v>
       </c>
       <c r="C78">
-        <v>6.405028471462419</v>
+        <v>3.0935949802296765</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,10 +1262,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>8.0816832980619679</v>
+        <v>3.4188162473147146</v>
       </c>
       <c r="C79">
-        <v>6.4027546526382642</v>
+        <v>3.093457005282326</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>8.0598228318062262</v>
+        <v>3.4173976982011993</v>
       </c>
       <c r="C80">
-        <v>6.4011759843505844</v>
+        <v>3.0932450300312184</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>8.0425847008448255</v>
+        <v>3.4147999510369802</v>
       </c>
       <c r="C81">
-        <v>6.3971476997721926</v>
+        <v>3.0926816447980117</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,10 +1295,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>8.0220978598054895</v>
+        <v>3.4116008831835445</v>
       </c>
       <c r="C82">
-        <v>6.3928412982316329</v>
+        <v>3.0922650001287142</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,10 +1306,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>8.0012024161921591</v>
+        <v>3.4111450486377941</v>
       </c>
       <c r="C83">
-        <v>6.3876990439525425</v>
+        <v>3.0916624704754141</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7.9769647906113255</v>
+        <v>3.4098811476691626</v>
       </c>
       <c r="C84">
-        <v>6.3839203654313188</v>
+        <v>3.0908166684589049</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1328,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7.9541258811119038</v>
+        <v>3.4053466114860607</v>
       </c>
       <c r="C85">
-        <v>6.380125729269829</v>
+        <v>3.0905685966026772</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,10 +1339,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7.9329317554700971</v>
+        <v>3.3996208398925978</v>
       </c>
       <c r="C86">
-        <v>6.3773102849736096</v>
+        <v>3.0900330735564592</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7.9201362693776831</v>
+        <v>3.3978483292719095</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7.90348650152659</v>
+        <v>3.3957675573101422</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7.8805805838047833</v>
+        <v>3.3944984876970095</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7.8606713318688186</v>
+        <v>3.3937614250029724</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7.8392090687825764</v>
+        <v>3.3935985594952705</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7.8166826693385216</v>
+        <v>3.3917585226496909</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7.7952188190771654</v>
+        <v>3.3922540713910099</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7.7778936666276852</v>
+        <v>3.3918678776573632</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7.757312987384009</v>
+        <v>3.3941834802897977</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7.7442711770651069</v>
+        <v>3.3922807745831789</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7.7271689971694286</v>
+        <v>3.3901966576705047</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7.7134991943151396</v>
+        <v>3.3917618515657635</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7.6915700807504752</v>
+        <v>3.390295900314678</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7.6707337834849714</v>
+        <v>3.3919289693143693</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7.6528359461990609</v>
+        <v>3.3920859753285311</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7.6266459675606093</v>
+        <v>3.3920593009087638</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7.6033363523102189</v>
+        <v>3.3908635606525395</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7.5842054546189637</v>
+        <v>3.3915388670734101</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7.5624797780112551</v>
+        <v>3.391323890215344</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7.5429441101866015</v>
+        <v>3.3915707698612256</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7.5237324465719357</v>
+        <v>3.3914053448948094</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7.4970821281187554</v>
+        <v>3.390348220405107</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7.4749225704276423</v>
+        <v>3.3894400823837305</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7.455582308433768</v>
+        <v>3.3885082278749126</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7.43745588569187</v>
+        <v>3.3885344926199195</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7.4154411386735255</v>
+        <v>3.3883640320166521</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7.400272279223298</v>
+        <v>3.3869628378169376</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7.3812721549015778</v>
+        <v>3.3891721780693058</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7.3592077323803089</v>
+        <v>3.3888254212915481</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7.3392487430314581</v>
+        <v>3.3889523546687519</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7.3179464581072011</v>
+        <v>3.3883566410579591</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7.3021806111825391</v>
+        <v>3.3887591019068335</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7.2832040995639478</v>
+        <v>3.3871740658230367</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7.2668888305859873</v>
+        <v>3.3883354917082205</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1622,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7.2517117909454161</v>
+        <v>3.3891945630031892</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7.2305866794483382</v>
+        <v>3.3887053263313782</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7.214253942469913</v>
+        <v>3.3884670008846332</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7.1906018341253937</v>
+        <v>3.3868587970705879</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7.1686316320457477</v>
+        <v>3.386283038848481</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7.1551847989527815</v>
+        <v>3.385092626006716</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7.1365947773948379</v>
+        <v>3.3854795576052128</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7.1251516198274771</v>
+        <v>3.3846591667400281</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7.1105945423487746</v>
+        <v>3.3856641687133622</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7.0916912023771443</v>
+        <v>3.3856319438740807</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7.0734112521661583</v>
+        <v>3.3860270279444027</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7.0595709372940352</v>
+        <v>3.3861475972130055</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7.0442146355863455</v>
+        <v>3.3862343773308838</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7.0336102123701334</v>
+        <v>3.3877174755500676</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7.0197604555593323</v>
+        <v>3.3872839177589693</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7.0115653620897858</v>
+        <v>3.3876220665933725</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7.00239245690448</v>
+        <v>3.3886400571776765</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>6.9979510101275721</v>
+        <v>3.3886024426945505</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>6.9904737641666568</v>
+        <v>3.3867474272493991</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>6.9767381669168245</v>
+        <v>3.3884439419295465</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>6.970684039600088</v>
+        <v>3.3890447283673213</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>6.9715509499974111</v>
+        <v>3.3870262046618103</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>6.9594654562229792</v>
+        <v>3.3869014057069533</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>6.9501222542529169</v>
+        <v>3.3861064608526319</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>6.9416461706919677</v>
+        <v>3.3851947763382277</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>6.9374246771887833</v>
+        <v>3.3835761749211275</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>6.9311751565267796</v>
+        <v>3.3842667568127616</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>6.9239818564451392</v>
+        <v>3.3832642674299307</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>6.9155802400708675</v>
+        <v>3.3840413228134798</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>6.903091067120525</v>
+        <v>3.3834455976353648</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>6.8891338521516534</v>
+        <v>3.3831117650830347</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>6.8777450782990455</v>
+        <v>3.38336269448736</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>6.8670380046904711</v>
+        <v>3.3840585562203271</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>6.8587627247343983</v>
+        <v>3.3830034614222537</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>6.852468018138234</v>
+        <v>3.3809718891709304</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>6.8461692534188705</v>
+        <v>3.3812412598248964</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>6.8412690548217494</v>
+        <v>3.3800686392592265</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>6.8369434116929186</v>
+        <v>3.3813356415790081</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>6.8313662617566386</v>
+        <v>3.382536332290381</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>6.8306349829333248</v>
+        <v>3.3821033993568195</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>6.8236211884078033</v>
+        <v>3.3825680680502739</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>6.8171204924228395</v>
+        <v>3.3804001278383855</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>6.8149109763519853</v>
+        <v>3.3780481603072183</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>6.8096437081038905</v>
+        <v>3.377665919565179</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>6.8072225853144186</v>
+        <v>3.3794879409367193</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>6.8029005943945959</v>
+        <v>3.3791385536441738</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>6.7962810762068351</v>
+        <v>3.3799627075820604</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>6.7950090958871954</v>
+        <v>3.3801309999536251</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2006,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>6.7915368516827153</v>
+        <v>3.378971415521395</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>6.793159707948373</v>
+        <v>3.3776054215113924</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>6.7895759648361995</v>
+        <v>3.3785241418511291</v>
       </c>
     </row>
   </sheetData>

--- a/mseplots_amp_sbmir.xlsx
+++ b/mseplots_amp_sbmir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darkroom\Joshua\mainlatest\FRCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214A7FAD-3603-479F-A855-DDF478F31685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F68EA-3FEA-4AD9-90A8-9BBB8FE095C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{181DF939-437F-4801-A272-FB7E58917727}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{039AD695-1360-4545-AAB7-351913564F31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AAD26-D14A-42FB-A291-2B648F2C1DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49688E9C-04A7-4118-A8CC-755F3FBFC571}">
   <dimension ref="A2:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.5706790986700989</v>
+        <v>10.560652069627087</v>
       </c>
       <c r="C2">
-        <v>4.5650211617135099</v>
+        <v>9.8574093329804366</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.13259838988757</v>
+        <v>10.086981386205785</v>
       </c>
       <c r="C3">
-        <v>4.2343124875797731</v>
+        <v>9.5860446218238593</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.9113121974754979</v>
+        <v>9.8587501894022882</v>
       </c>
       <c r="C4">
-        <v>4.0516018955699105</v>
+        <v>9.4869121092482835</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.7935967397444488</v>
+        <v>9.7441330258133441</v>
       </c>
       <c r="C5">
-        <v>3.9059972964926515</v>
+        <v>9.4141278971085516</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.6981766541577175</v>
+        <v>9.646986130090843</v>
       </c>
       <c r="C6">
-        <v>3.792662800229837</v>
+        <v>9.353141097098117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.6226533146884048</v>
+        <v>9.5487241836380434</v>
       </c>
       <c r="C7">
-        <v>3.7140137278324765</v>
+        <v>9.2926389125566331</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.5614987824388944</v>
+        <v>9.4803833172195606</v>
       </c>
       <c r="C8">
-        <v>3.6457079803384609</v>
+        <v>9.2394974708771525</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +492,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.5114973558479337</v>
+        <v>9.4317712108126379</v>
       </c>
       <c r="C9">
-        <v>3.5798624487386967</v>
+        <v>9.1786173844608303</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.4611509836029946</v>
+        <v>9.3924463095875801</v>
       </c>
       <c r="C10">
-        <v>3.5223925271391359</v>
+        <v>9.0887422589830251</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.4189451377261619</v>
+        <v>9.3461825204923095</v>
       </c>
       <c r="C11">
-        <v>3.488096516294219</v>
+        <v>8.9719099088676426</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.3747457624701909</v>
+        <v>9.3217134852629968</v>
       </c>
       <c r="C12">
-        <v>3.4583802989709067</v>
+        <v>8.8601865018979566</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.3344313356526945</v>
+        <v>9.296654579140684</v>
       </c>
       <c r="C13">
-        <v>3.4205670873082603</v>
+        <v>8.7370022316471374</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +547,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.2950558816636661</v>
+        <v>9.2767147707011297</v>
       </c>
       <c r="C14">
-        <v>3.3893071007910787</v>
+        <v>8.617214391426737</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4.2530947951999165</v>
+        <v>9.2417064537311173</v>
       </c>
       <c r="C15">
-        <v>3.3708334732083269</v>
+        <v>8.5040501757495441</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.2127676332542476</v>
+        <v>9.232396537011196</v>
       </c>
       <c r="C16">
-        <v>3.3534778695423508</v>
+        <v>8.4090233278396429</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4.1724284005956447</v>
+        <v>9.2065123045903956</v>
       </c>
       <c r="C17">
-        <v>3.3354065125423937</v>
+        <v>8.3376143528812285</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4.1296030469098852</v>
+        <v>9.1758179867380552</v>
       </c>
       <c r="C18">
-        <v>3.3219494528838385</v>
+        <v>8.2703998480611904</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4.0919519596689318</v>
+        <v>9.1606487565274595</v>
       </c>
       <c r="C19">
-        <v>3.3045012588360221</v>
+        <v>8.1961618641705787</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4.0502149786118284</v>
+        <v>9.1411263328316501</v>
       </c>
       <c r="C20">
-        <v>3.2950282428881899</v>
+        <v>8.1235335586363551</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +624,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4.007941274504895</v>
+        <v>9.1182627260556064</v>
       </c>
       <c r="C21">
-        <v>3.2865418914970843</v>
+        <v>8.0486140044147927</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +635,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3.9716595553467067</v>
+        <v>9.0960555940064403</v>
       </c>
       <c r="C22">
-        <v>3.2785519180292586</v>
+        <v>7.9821024070341755</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.9311882123383919</v>
+        <v>9.0659772277762389</v>
       </c>
       <c r="C23">
-        <v>3.2731285268422239</v>
+        <v>7.906871677543883</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +657,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>3.8962636299230189</v>
+        <v>9.0383597511325142</v>
       </c>
       <c r="C24">
-        <v>3.2689719083291298</v>
+        <v>7.8232147001774992</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3.8649263167586794</v>
+        <v>9.0153420899600434</v>
       </c>
       <c r="C25">
-        <v>3.2629232503796164</v>
+        <v>7.7429673835441148</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +679,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3.831760399712556</v>
+        <v>8.9993017166898213</v>
       </c>
       <c r="C26">
-        <v>3.2521354875912039</v>
+        <v>7.6439522832456088</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3.804832281839857</v>
+        <v>8.9724244914878302</v>
       </c>
       <c r="C27">
-        <v>3.2422950575795086</v>
+        <v>7.5494662688889216</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3.7765489597849604</v>
+        <v>8.9434125941186196</v>
       </c>
       <c r="C28">
-        <v>3.2306453270122724</v>
+        <v>7.4760661538121269</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3.7518251097140047</v>
+        <v>8.9168154402028907</v>
       </c>
       <c r="C29">
-        <v>3.2239798702812594</v>
+        <v>7.4155387684684912</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +723,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3.7293035169781348</v>
+        <v>8.9000120695401996</v>
       </c>
       <c r="C30">
-        <v>3.2196557008481501</v>
+        <v>7.375945707105906</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3.7076235878746933</v>
+        <v>8.8636620587797861</v>
       </c>
       <c r="C31">
-        <v>3.2165220063640483</v>
+        <v>7.3386275041759532</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +745,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3.6887594912336907</v>
+        <v>8.8417000260002538</v>
       </c>
       <c r="C32">
-        <v>3.213455026261653</v>
+        <v>7.3022281564753948</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3.675526342950469</v>
+        <v>8.822662027985638</v>
       </c>
       <c r="C33">
-        <v>3.2094398898763985</v>
+        <v>7.2656817666802738</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3.6600614325525087</v>
+        <v>8.798188303771326</v>
       </c>
       <c r="C34">
-        <v>3.2064231474044931</v>
+        <v>7.2416881033238694</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +778,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3.6459102494866484</v>
+        <v>8.7544157729870999</v>
       </c>
       <c r="C35">
-        <v>3.2029251784858799</v>
+        <v>7.224625934660069</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3.634012895307456</v>
+        <v>8.7359969493964904</v>
       </c>
       <c r="C36">
-        <v>3.1987527541060503</v>
+        <v>7.2098835721315933</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3.6219049200973163</v>
+        <v>8.7024336342611015</v>
       </c>
       <c r="C37">
-        <v>3.1955803614368459</v>
+        <v>7.1973800671029267</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +811,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3.6122735124099448</v>
+        <v>8.6709174167208722</v>
       </c>
       <c r="C38">
-        <v>3.193225377822003</v>
+        <v>7.1839139607851958</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3.6039496483845528</v>
+        <v>8.6471907353405957</v>
       </c>
       <c r="C39">
-        <v>3.1912577098986707</v>
+        <v>7.1713778688456067</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3.5941281193791794</v>
+        <v>8.6073433436887772</v>
       </c>
       <c r="C40">
-        <v>3.1900018979575271</v>
+        <v>7.1612370010896464</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3.5864768688923414</v>
+        <v>8.573690368012965</v>
       </c>
       <c r="C41">
-        <v>3.1888411407358648</v>
+        <v>7.1543163250218047</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>3.581636982177987</v>
+        <v>8.5466104693897158</v>
       </c>
       <c r="C42">
-        <v>3.1877112672170607</v>
+        <v>7.1502860492558531</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3.5740617711998883</v>
+        <v>8.5144620562002213</v>
       </c>
       <c r="C43">
-        <v>3.1859367684258895</v>
+        <v>7.1472555375809899</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3.5631794739279532</v>
+        <v>8.492892778710571</v>
       </c>
       <c r="C44">
-        <v>3.1839646661109837</v>
+        <v>7.1443985290918386</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,10 +888,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>3.5556217068971163</v>
+        <v>8.4721240130805366</v>
       </c>
       <c r="C45">
-        <v>3.1814789546555091</v>
+        <v>7.1413035363398434</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,10 +899,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>3.5494023921882754</v>
+        <v>8.4473158715928793</v>
       </c>
       <c r="C46">
-        <v>3.1766060860546217</v>
+        <v>7.1378092167061888</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,10 +910,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3.5438567721713112</v>
+        <v>8.4193158919825457</v>
       </c>
       <c r="C47">
-        <v>3.1744277437540172</v>
+        <v>7.1342439018189188</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,10 +921,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>3.5368924935488333</v>
+        <v>8.3900540084173816</v>
       </c>
       <c r="C48">
-        <v>3.1713216687644956</v>
+        <v>7.1307078052941915</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,10 +932,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>3.5280328113898531</v>
+        <v>8.3574347052878579</v>
       </c>
       <c r="C49">
-        <v>3.1624636247841886</v>
+        <v>7.1283975258945418</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>3.5192968249848984</v>
+        <v>8.3325882294277083</v>
       </c>
       <c r="C50">
-        <v>3.1540810070220937</v>
+        <v>7.127054916907607</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3.5120493362403904</v>
+        <v>8.3092907436551577</v>
       </c>
       <c r="C51">
-        <v>3.1510193119402516</v>
+        <v>7.1246050800880747</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>3.5060555422879518</v>
+        <v>8.2826982392629489</v>
       </c>
       <c r="C52">
-        <v>3.1479421418916469</v>
+        <v>7.1215611854885514</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,10 +976,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>3.4983651123151298</v>
+        <v>8.2575176787943683</v>
       </c>
       <c r="C53">
-        <v>3.1441652490345398</v>
+        <v>7.1189044519225604</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,10 +987,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>3.4897027743429532</v>
+        <v>8.2309254686724813</v>
       </c>
       <c r="C54">
-        <v>3.1370352830667851</v>
+        <v>7.117942916294778</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,10 +998,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>3.4829462767991322</v>
+        <v>8.2043136101406979</v>
       </c>
       <c r="C55">
-        <v>3.1330964428164441</v>
+        <v>7.1168513579009751</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,10 +1009,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>3.4783957635708074</v>
+        <v>8.187349804299437</v>
       </c>
       <c r="C56">
-        <v>3.1306699375352265</v>
+        <v>7.11413303664993</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,10 +1020,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3.4731577462901946</v>
+        <v>8.1613161764547133</v>
       </c>
       <c r="C57">
-        <v>3.1288118218595309</v>
+        <v>7.1112759134661578</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,10 +1031,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>3.4706518344424131</v>
+        <v>8.1342790133724652</v>
       </c>
       <c r="C58">
-        <v>3.1268698747049632</v>
+        <v>7.1103641597786238</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>3.4677872182654688</v>
+        <v>8.1016872291322741</v>
       </c>
       <c r="C59">
-        <v>3.1252008166701661</v>
+        <v>7.10868126623095</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3.4669054006567808</v>
+        <v>8.0796010091253159</v>
       </c>
       <c r="C60">
-        <v>3.1233353041731324</v>
+        <v>7.1064432021886956</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3.4634875782858359</v>
+        <v>8.0613767839507631</v>
       </c>
       <c r="C61">
-        <v>3.1214128772762568</v>
+        <v>7.104666276218933</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1075,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3.4569325148054855</v>
+        <v>8.0371320774839621</v>
       </c>
       <c r="C62">
-        <v>3.1198946609884568</v>
+        <v>7.1041120353136424</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3.4492595824696162</v>
+        <v>8.0173712174335918</v>
       </c>
       <c r="C63">
-        <v>3.1182442227316467</v>
+        <v>7.1022109756949181</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3.4439847757144717</v>
+        <v>7.9993573863390983</v>
       </c>
       <c r="C64">
-        <v>3.1170951070602384</v>
+        <v>7.1020673396472738</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,10 +1108,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3.4421727410269591</v>
+        <v>7.9767602929068859</v>
       </c>
       <c r="C65">
-        <v>3.1153328456899647</v>
+        <v>7.1017318561461957</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3.4405564223348186</v>
+        <v>7.9522541730100453</v>
       </c>
       <c r="C66">
-        <v>3.1129074398458125</v>
+        <v>7.1006667152757839</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3.4371821926057127</v>
+        <v>7.9306923392218183</v>
       </c>
       <c r="C67">
-        <v>3.1115907800029539</v>
+        <v>7.0994197391959597</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,10 +1141,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3.4369251372209355</v>
+        <v>7.9052127525389562</v>
       </c>
       <c r="C68">
-        <v>3.110198944935024</v>
+        <v>7.0980995941391418</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3.4342646439132012</v>
+        <v>7.8863252143290072</v>
       </c>
       <c r="C69">
-        <v>3.1070026140615439</v>
+        <v>7.0974375642846326</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,10 +1163,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>3.4349338723677607</v>
+        <v>7.8688115426583849</v>
       </c>
       <c r="C70">
-        <v>3.104883085027565</v>
+        <v>7.0967290955731945</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,10 +1174,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3.4310149646376242</v>
+        <v>7.8525307190762215</v>
       </c>
       <c r="C71">
-        <v>3.1005033991901376</v>
+        <v>7.096610227885499</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,10 +1185,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>3.4292014800063155</v>
+        <v>7.8354214551108168</v>
       </c>
       <c r="C72">
-        <v>3.0971016286549569</v>
+        <v>7.0965977189485727</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,10 +1196,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>3.4306056017606226</v>
+        <v>7.820388283845543</v>
       </c>
       <c r="C73">
-        <v>3.0964914757046405</v>
+        <v>7.0973737303112667</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3.4274898109083982</v>
+        <v>7.7904892327891471</v>
       </c>
       <c r="C74">
-        <v>3.0957991763770258</v>
+        <v>7.0969150495003968</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,10 +1218,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>3.4241089550913677</v>
+        <v>7.7722972311888467</v>
       </c>
       <c r="C75">
-        <v>3.0948902857692233</v>
+        <v>7.0951479929693804</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3.4222060548616771</v>
+        <v>7.7558601436015042</v>
       </c>
       <c r="C76">
-        <v>3.094231310544556</v>
+        <v>7.0931173024416534</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3.4205917056034241</v>
+        <v>7.7357195874259528</v>
       </c>
       <c r="C77">
-        <v>3.0938490884779566</v>
+        <v>7.0914042857047024</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3.4188007835795147</v>
+        <v>7.7218395649447098</v>
       </c>
       <c r="C78">
-        <v>3.0935949802296765</v>
+        <v>7.0892925440573844</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,10 +1262,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3.4188162473147146</v>
+        <v>7.7108530734342393</v>
       </c>
       <c r="C79">
-        <v>3.093457005282326</v>
+        <v>7.0874886873103149</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3.4173976982011993</v>
+        <v>7.7003379201313233</v>
       </c>
       <c r="C80">
-        <v>3.0932450300312184</v>
+        <v>7.0864135189663333</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3.4147999510369802</v>
+        <v>7.6929584630795329</v>
       </c>
       <c r="C81">
-        <v>3.0926816447980117</v>
+        <v>7.0853460612319257</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,10 +1295,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3.4116008831835445</v>
+        <v>7.6816951994065468</v>
       </c>
       <c r="C82">
-        <v>3.0922650001287142</v>
+        <v>7.0840343654352207</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,10 +1306,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3.4111450486377941</v>
+        <v>7.6745155286007245</v>
       </c>
       <c r="C83">
-        <v>3.0916624704754141</v>
+        <v>7.0823743838662132</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>3.4098811476691626</v>
+        <v>7.6663119437504985</v>
       </c>
       <c r="C84">
-        <v>3.0908166684589049</v>
+        <v>7.079975296541007</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1328,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>3.4053466114860607</v>
+        <v>7.6538115312077446</v>
       </c>
       <c r="C85">
-        <v>3.0905685966026772</v>
+        <v>7.077450131319341</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,10 +1339,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3.3996208398925978</v>
+        <v>7.6406775109786329</v>
       </c>
       <c r="C86">
-        <v>3.0900330735564592</v>
+        <v>7.0753764197398459</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>3.3978483292719095</v>
+        <v>7.6307007026948339</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>3.3957675573101422</v>
+        <v>7.6213614791340341</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>3.3944984876970095</v>
+        <v>7.6088371293420849</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>3.3937614250029724</v>
+        <v>7.5944228021795217</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>3.3935985594952705</v>
+        <v>7.5759171739219164</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>3.3917585226496909</v>
+        <v>7.5707632037204853</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>3.3922540713910099</v>
+        <v>7.5492801640765652</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>3.3918678776573632</v>
+        <v>7.533253556612312</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>3.3941834802897977</v>
+        <v>7.5191542147238968</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>3.3922807745831789</v>
+        <v>7.5056082031234856</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>3.3901966576705047</v>
+        <v>7.4921110027410087</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3.3917618515657635</v>
+        <v>7.4762642833129078</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>3.390295900314678</v>
+        <v>7.464736407933378</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3.3919289693143693</v>
+        <v>7.4681392271234559</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>3.3920859753285311</v>
+        <v>7.4586843369385436</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>3.3920593009087638</v>
+        <v>7.4491038147449373</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>3.3908635606525395</v>
+        <v>7.4357410128470267</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>3.3915388670734101</v>
+        <v>7.4240603917873527</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>3.391323890215344</v>
+        <v>7.4206568056540938</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>3.3915707698612256</v>
+        <v>7.4086980806134237</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>3.3914053448948094</v>
+        <v>7.4021565440670223</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>3.390348220405107</v>
+        <v>7.3948092477604179</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>3.3894400823837305</v>
+        <v>7.3857488149176449</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>3.3885082278749126</v>
+        <v>7.3816584296953396</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>3.3885344926199195</v>
+        <v>7.3765753738616517</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>3.3883640320166521</v>
+        <v>7.3635313073567179</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>3.3869628378169376</v>
+        <v>7.3560332053087505</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>3.3891721780693058</v>
+        <v>7.3477375801006026</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>3.3888254212915481</v>
+        <v>7.3478671144498344</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>3.3889523546687519</v>
+        <v>7.3370635770438142</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>3.3883566410579591</v>
+        <v>7.330893860690459</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>3.3887591019068335</v>
+        <v>7.3256077560332526</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3.3871740658230367</v>
+        <v>7.3226959552139466</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>3.3883354917082205</v>
+        <v>7.3183429639529542</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1622,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.3891945630031892</v>
+        <v>7.3073352708677453</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>3.3887053263313782</v>
+        <v>7.3030384988227501</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>3.3884670008846332</v>
+        <v>7.3026091875140189</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>3.3868587970705879</v>
+        <v>7.3019942409749907</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>3.386283038848481</v>
+        <v>7.3022473639128167</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>3.385092626006716</v>
+        <v>7.300130377859869</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>3.3854795576052128</v>
+        <v>7.3026978414714065</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>3.3846591667400281</v>
+        <v>7.2951500103547939</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3.3856641687133622</v>
+        <v>7.2918486191817529</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>3.3856319438740807</v>
+        <v>7.2872996224150439</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>3.3860270279444027</v>
+        <v>7.2867526710013841</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>3.3861475972130055</v>
+        <v>7.2839883882099938</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>3.3862343773308838</v>
+        <v>7.2819350967537835</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>3.3877174755500676</v>
+        <v>7.2788675844286548</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>3.3872839177589693</v>
+        <v>7.2794298502443215</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>3.3876220665933725</v>
+        <v>7.2816243828723008</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>3.3886400571776765</v>
+        <v>7.2850059923024677</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>3.3886024426945505</v>
+        <v>7.2897882381889261</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>3.3867474272493991</v>
+        <v>7.2863851875219465</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>3.3884439419295465</v>
+        <v>7.2818245137461881</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>3.3890447283673213</v>
+        <v>7.2763873298924704</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>3.3870262046618103</v>
+        <v>7.2738690567839877</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>3.3869014057069533</v>
+        <v>7.2723217898976591</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>3.3861064608526319</v>
+        <v>7.2725066719543134</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>3.3851947763382277</v>
+        <v>7.2793788480307349</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>3.3835761749211275</v>
+        <v>7.2767442892210958</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>3.3842667568127616</v>
+        <v>7.2700252834732497</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>3.3832642674299307</v>
+        <v>7.2693263510628148</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>3.3840413228134798</v>
+        <v>7.2744109615506423</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>3.3834455976353648</v>
+        <v>7.2705348383634689</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>3.3831117650830347</v>
+        <v>7.2733825038670235</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>3.38336269448736</v>
+        <v>7.2728314404071455</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>3.3840585562203271</v>
+        <v>7.2749863692358687</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>3.3830034614222537</v>
+        <v>7.2777058639532752</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>3.3809718891709304</v>
+        <v>7.2768986736000114</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>3.3812412598248964</v>
+        <v>7.2771914071989707</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>3.3800686392592265</v>
+        <v>7.2752820022896056</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>3.3813356415790081</v>
+        <v>7.2732990941863287</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>3.382536332290381</v>
+        <v>7.2688658512660247</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>3.3821033993568195</v>
+        <v>7.2726524174223757</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>3.3825680680502739</v>
+        <v>7.2733878537591554</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>3.3804001278383855</v>
+        <v>7.2740458880435028</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>3.3780481603072183</v>
+        <v>7.2703100977088591</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>3.377665919565179</v>
+        <v>7.2710412190868006</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>3.3794879409367193</v>
+        <v>7.2675839936352373</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>3.3791385536441738</v>
+        <v>7.2686439641929734</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>3.3799627075820604</v>
+        <v>7.271529924856611</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>3.3801309999536251</v>
+        <v>7.2719208632927845</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2006,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>3.378971415521395</v>
+        <v>7.2662642074621964</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>3.3776054215113924</v>
+        <v>7.2644406315905519</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>3.3785241418511291</v>
+        <v>7.261390149377573</v>
       </c>
     </row>
   </sheetData>

--- a/mseplots_amp_sbmir.xlsx
+++ b/mseplots_amp_sbmir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darkroom\Joshua\mainlatest\FRCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F68EA-3FEA-4AD9-90A8-9BBB8FE095C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE74CEA7-8CB5-413F-B5CE-E6FB449FAE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{039AD695-1360-4545-AAB7-351913564F31}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{F3EF7D80-C71E-4470-8272-62A1B54B6C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49688E9C-04A7-4118-A8CC-755F3FBFC571}">
-  <dimension ref="A2:C171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB7EB6D-ED30-49F5-BB19-5CE941D8EA8B}">
+  <dimension ref="A2:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C86"/>
+      <selection activeCell="C2" sqref="C2:C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.560652069627087</v>
+        <v>12.138241776697546</v>
       </c>
       <c r="C2">
-        <v>9.8574093329804366</v>
+        <v>11.434278656932127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.086981386205785</v>
+        <v>11.649826794010954</v>
       </c>
       <c r="C3">
-        <v>9.5860446218238593</v>
+        <v>11.150895567290359</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.8587501894022882</v>
+        <v>11.343879680719521</v>
       </c>
       <c r="C4">
-        <v>9.4869121092482835</v>
+        <v>11.017377413361805</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.7441330258133441</v>
+        <v>11.210020682734028</v>
       </c>
       <c r="C5">
-        <v>9.4141278971085516</v>
+        <v>10.954406303827984</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9.646986130090843</v>
+        <v>11.109222542920534</v>
       </c>
       <c r="C6">
-        <v>9.353141097098117</v>
+        <v>10.910159321554938</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.5487241836380434</v>
+        <v>11.016632101839345</v>
       </c>
       <c r="C7">
-        <v>9.2926389125566331</v>
+        <v>10.886383194643294</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9.4803833172195606</v>
+        <v>10.960657382689753</v>
       </c>
       <c r="C8">
-        <v>9.2394974708771525</v>
+        <v>10.867872637551427</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +492,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9.4317712108126379</v>
+        <v>10.91476603976834</v>
       </c>
       <c r="C9">
-        <v>9.1786173844608303</v>
+        <v>10.843124749756679</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9.3924463095875801</v>
+        <v>10.884343784028653</v>
       </c>
       <c r="C10">
-        <v>9.0887422589830251</v>
+        <v>10.815419289968769</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.3461825204923095</v>
+        <v>10.858066263061897</v>
       </c>
       <c r="C11">
-        <v>8.9719099088676426</v>
+        <v>10.795227161493266</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.3217134852629968</v>
+        <v>10.826666779207967</v>
       </c>
       <c r="C12">
-        <v>8.8601865018979566</v>
+        <v>10.772670617323447</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9.296654579140684</v>
+        <v>10.798237463484416</v>
       </c>
       <c r="C13">
-        <v>8.7370022316471374</v>
+        <v>10.761713075031723</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +547,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9.2767147707011297</v>
+        <v>10.774985156615367</v>
       </c>
       <c r="C14">
-        <v>8.617214391426737</v>
+        <v>10.74995684405917</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9.2417064537311173</v>
+        <v>10.75190023339592</v>
       </c>
       <c r="C15">
-        <v>8.5040501757495441</v>
+        <v>10.745987768409973</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9.232396537011196</v>
+        <v>10.730644535351894</v>
       </c>
       <c r="C16">
-        <v>8.4090233278396429</v>
+        <v>10.740165333422485</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.2065123045903956</v>
+        <v>10.71747118316285</v>
       </c>
       <c r="C17">
-        <v>8.3376143528812285</v>
+        <v>10.727519755082858</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.1758179867380552</v>
+        <v>10.706651724083105</v>
       </c>
       <c r="C18">
-        <v>8.2703998480611904</v>
+        <v>10.71457549446469</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>9.1606487565274595</v>
+        <v>10.681961308979307</v>
       </c>
       <c r="C19">
-        <v>8.1961618641705787</v>
+        <v>10.702983263328129</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9.1411263328316501</v>
+        <v>10.672574089396154</v>
       </c>
       <c r="C20">
-        <v>8.1235335586363551</v>
+        <v>10.696627642632111</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +624,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.1182627260556064</v>
+        <v>10.662813078364326</v>
       </c>
       <c r="C21">
-        <v>8.0486140044147927</v>
+        <v>10.691079332969709</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +635,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9.0960555940064403</v>
+        <v>10.651514745795941</v>
       </c>
       <c r="C22">
-        <v>7.9821024070341755</v>
+        <v>10.687926465302485</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9.0659772277762389</v>
+        <v>10.649242822974061</v>
       </c>
       <c r="C23">
-        <v>7.906871677543883</v>
+        <v>10.695644137229367</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +657,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9.0383597511325142</v>
+        <v>10.627487151499315</v>
       </c>
       <c r="C24">
-        <v>7.8232147001774992</v>
+        <v>10.701324480231367</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9.0153420899600434</v>
+        <v>10.62020268916894</v>
       </c>
       <c r="C25">
-        <v>7.7429673835441148</v>
+        <v>10.704117549954715</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +679,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8.9993017166898213</v>
+        <v>10.604623744639575</v>
       </c>
       <c r="C26">
-        <v>7.6439522832456088</v>
+        <v>10.697415344725037</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8.9724244914878302</v>
+        <v>10.598634572606066</v>
       </c>
       <c r="C27">
-        <v>7.5494662688889216</v>
+        <v>10.692328616956177</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8.9434125941186196</v>
+        <v>10.589838175701921</v>
       </c>
       <c r="C28">
-        <v>7.4760661538121269</v>
+        <v>10.685269259256142</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8.9168154402028907</v>
+        <v>10.579423700730349</v>
       </c>
       <c r="C29">
-        <v>7.4155387684684912</v>
+        <v>10.678570161449924</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +723,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8.9000120695401996</v>
+        <v>10.583833080217676</v>
       </c>
       <c r="C30">
-        <v>7.375945707105906</v>
+        <v>10.667892879310955</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>8.8636620587797861</v>
+        <v>10.586408615917222</v>
       </c>
       <c r="C31">
-        <v>7.3386275041759532</v>
+        <v>10.655785765330172</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +745,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>8.8417000260002538</v>
+        <v>10.578165632151405</v>
       </c>
       <c r="C32">
-        <v>7.3022281564753948</v>
+        <v>10.643738973327221</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>8.822662027985638</v>
+        <v>10.583433056114165</v>
       </c>
       <c r="C33">
-        <v>7.2656817666802738</v>
+        <v>10.635356652720018</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>8.798188303771326</v>
+        <v>10.569001179834141</v>
       </c>
       <c r="C34">
-        <v>7.2416881033238694</v>
+        <v>10.627930008464698</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +778,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>8.7544157729870999</v>
+        <v>10.555679359013002</v>
       </c>
       <c r="C35">
-        <v>7.224625934660069</v>
+        <v>10.623775709705942</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>8.7359969493964904</v>
+        <v>10.541702376576138</v>
       </c>
       <c r="C36">
-        <v>7.2098835721315933</v>
+        <v>10.618871610909316</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>8.7024336342611015</v>
+        <v>10.538428093813659</v>
       </c>
       <c r="C37">
-        <v>7.1973800671029267</v>
+        <v>10.616191062128733</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +811,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>8.6709174167208722</v>
+        <v>10.537767494414434</v>
       </c>
       <c r="C38">
-        <v>7.1839139607851958</v>
+        <v>10.611446890489901</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>8.6471907353405957</v>
+        <v>10.530383820355805</v>
       </c>
       <c r="C39">
-        <v>7.1713778688456067</v>
+        <v>10.607315584116895</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>8.6073433436887772</v>
+        <v>10.524790505554181</v>
       </c>
       <c r="C40">
-        <v>7.1612370010896464</v>
+        <v>10.611562224966132</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>8.573690368012965</v>
+        <v>10.527796486125249</v>
       </c>
       <c r="C41">
-        <v>7.1543163250218047</v>
+        <v>10.613276748366012</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8.5466104693897158</v>
+        <v>10.533027107002495</v>
       </c>
       <c r="C42">
-        <v>7.1502860492558531</v>
+        <v>10.610423322918564</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>8.5144620562002213</v>
+        <v>10.518864527323517</v>
       </c>
       <c r="C43">
-        <v>7.1472555375809899</v>
+        <v>10.603625792727321</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>8.492892778710571</v>
+        <v>10.510275151521048</v>
       </c>
       <c r="C44">
-        <v>7.1443985290918386</v>
+        <v>10.600338561307627</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,10 +888,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>8.4721240130805366</v>
+        <v>10.513170557870668</v>
       </c>
       <c r="C45">
-        <v>7.1413035363398434</v>
+        <v>10.594943781722458</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,10 +899,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>8.4473158715928793</v>
+        <v>10.50632583338245</v>
       </c>
       <c r="C46">
-        <v>7.1378092167061888</v>
+        <v>10.592720639890828</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,10 +910,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>8.4193158919825457</v>
+        <v>10.510176028413232</v>
       </c>
       <c r="C47">
-        <v>7.1342439018189188</v>
+        <v>10.588148290053562</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,10 +921,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>8.3900540084173816</v>
+        <v>10.504995917660812</v>
       </c>
       <c r="C48">
-        <v>7.1307078052941915</v>
+        <v>10.583734159025784</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,10 +932,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>8.3574347052878579</v>
+        <v>10.492299629663265</v>
       </c>
       <c r="C49">
-        <v>7.1283975258945418</v>
+        <v>10.578041397462789</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>8.3325882294277083</v>
+        <v>10.490415719310233</v>
       </c>
       <c r="C50">
-        <v>7.127054916907607</v>
+        <v>10.575578640018097</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,10 +954,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>8.3092907436551577</v>
+        <v>10.4861729653546</v>
       </c>
       <c r="C51">
-        <v>7.1246050800880747</v>
+        <v>10.570093007364877</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>8.2826982392629489</v>
+        <v>10.489519806914702</v>
       </c>
       <c r="C52">
-        <v>7.1215611854885514</v>
+        <v>10.567708984572153</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,10 +976,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>8.2575176787943683</v>
+        <v>10.474613975122814</v>
       </c>
       <c r="C53">
-        <v>7.1189044519225604</v>
+        <v>10.568129123754456</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,10 +987,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>8.2309254686724813</v>
+        <v>10.464528694854316</v>
       </c>
       <c r="C54">
-        <v>7.117942916294778</v>
+        <v>10.565389603731465</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,10 +998,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>8.2043136101406979</v>
+        <v>10.45179660798642</v>
       </c>
       <c r="C55">
-        <v>7.1168513579009751</v>
+        <v>10.563561307781681</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,10 +1009,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>8.187349804299437</v>
+        <v>10.456082421779977</v>
       </c>
       <c r="C56">
-        <v>7.11413303664993</v>
+        <v>10.55886278388896</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,10 +1020,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>8.1613161764547133</v>
+        <v>10.455812786469586</v>
       </c>
       <c r="C57">
-        <v>7.1112759134661578</v>
+        <v>10.553345734638411</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,10 +1031,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>8.1342790133724652</v>
+        <v>10.460235555922964</v>
       </c>
       <c r="C58">
-        <v>7.1103641597786238</v>
+        <v>10.546936492916723</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>8.1016872291322741</v>
+        <v>10.468504476376616</v>
       </c>
       <c r="C59">
-        <v>7.10868126623095</v>
+        <v>10.541621683628096</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>8.0796010091253159</v>
+        <v>10.478655279713989</v>
       </c>
       <c r="C60">
-        <v>7.1064432021886956</v>
+        <v>10.529120050963115</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>8.0613767839507631</v>
+        <v>10.473902109165072</v>
       </c>
       <c r="C61">
-        <v>7.104666276218933</v>
+        <v>10.518601931136004</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1075,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>8.0371320774839621</v>
+        <v>10.466120571475189</v>
       </c>
       <c r="C62">
-        <v>7.1041120353136424</v>
+        <v>10.509608490169999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>8.0173712174335918</v>
+        <v>10.452873460180909</v>
       </c>
       <c r="C63">
-        <v>7.1022109756949181</v>
+        <v>10.498172169983615</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7.9993573863390983</v>
+        <v>10.454294888222462</v>
       </c>
       <c r="C64">
-        <v>7.1020673396472738</v>
+        <v>10.487633261838001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,10 +1108,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7.9767602929068859</v>
+        <v>10.459870266584717</v>
       </c>
       <c r="C65">
-        <v>7.1017318561461957</v>
+        <v>10.478510236760672</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7.9522541730100453</v>
+        <v>10.458035467329102</v>
       </c>
       <c r="C66">
-        <v>7.1006667152757839</v>
+        <v>10.468023548875232</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7.9306923392218183</v>
+        <v>10.455397610494463</v>
       </c>
       <c r="C67">
-        <v>7.0994197391959597</v>
+        <v>10.458944037727633</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,10 +1141,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7.9052127525389562</v>
+        <v>10.447061936691259</v>
       </c>
       <c r="C68">
-        <v>7.0980995941391418</v>
+        <v>10.451259487333727</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7.8863252143290072</v>
+        <v>10.442264886809399</v>
       </c>
       <c r="C69">
-        <v>7.0974375642846326</v>
+        <v>10.446763347343419</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,10 +1163,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7.8688115426583849</v>
+        <v>10.449273190933617</v>
       </c>
       <c r="C70">
-        <v>7.0967290955731945</v>
+        <v>10.444415172299388</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,10 +1174,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7.8525307190762215</v>
+        <v>10.458897872417937</v>
       </c>
       <c r="C71">
-        <v>7.096610227885499</v>
+        <v>10.442772170426895</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,10 +1185,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7.8354214551108168</v>
+        <v>10.454832467229844</v>
       </c>
       <c r="C72">
-        <v>7.0965977189485727</v>
+        <v>10.439682043754644</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,10 +1196,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7.820388283845543</v>
+        <v>10.440656950199202</v>
       </c>
       <c r="C73">
-        <v>7.0973737303112667</v>
+        <v>10.438891603780666</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7.7904892327891471</v>
+        <v>10.447091863379953</v>
       </c>
       <c r="C74">
-        <v>7.0969150495003968</v>
+        <v>10.437273634101507</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,10 +1218,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7.7722972311888467</v>
+        <v>10.441627541256276</v>
       </c>
       <c r="C75">
-        <v>7.0951479929693804</v>
+        <v>10.433186316821997</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7.7558601436015042</v>
+        <v>10.444652273256901</v>
       </c>
       <c r="C76">
-        <v>7.0931173024416534</v>
+        <v>10.42790562611939</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7.7357195874259528</v>
+        <v>10.446843351697357</v>
       </c>
       <c r="C77">
-        <v>7.0914042857047024</v>
+        <v>10.425372258240495</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7.7218395649447098</v>
+        <v>10.436023664252827</v>
       </c>
       <c r="C78">
-        <v>7.0892925440573844</v>
+        <v>10.421668804523479</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,10 +1262,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7.7108530734342393</v>
+        <v>10.434881950172462</v>
       </c>
       <c r="C79">
-        <v>7.0874886873103149</v>
+        <v>10.406475268414159</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7.7003379201313233</v>
+        <v>10.444373057284897</v>
       </c>
       <c r="C80">
-        <v>7.0864135189663333</v>
+        <v>10.386925499399336</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7.6929584630795329</v>
+        <v>10.426750170138282</v>
       </c>
       <c r="C81">
-        <v>7.0853460612319257</v>
+        <v>10.379349926178477</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,10 +1295,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7.6816951994065468</v>
+        <v>10.426446687280231</v>
       </c>
       <c r="C82">
-        <v>7.0840343654352207</v>
+        <v>10.377771599433377</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,10 +1306,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7.6745155286007245</v>
+        <v>10.422793963868124</v>
       </c>
       <c r="C83">
-        <v>7.0823743838662132</v>
+        <v>10.373721486362941</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7.6663119437504985</v>
+        <v>10.408213799845598</v>
       </c>
       <c r="C84">
-        <v>7.079975296541007</v>
+        <v>10.373614937138978</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1328,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7.6538115312077446</v>
+        <v>10.409067607327698</v>
       </c>
       <c r="C85">
-        <v>7.077450131319341</v>
+        <v>10.374148697805012</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,10 +1339,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7.6406775109786329</v>
+        <v>10.412182463482941</v>
       </c>
       <c r="C86">
-        <v>7.0753764197398459</v>
+        <v>10.372306500065031</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7.6307007026948339</v>
+        <v>10.415366102003732</v>
+      </c>
+      <c r="C87">
+        <v>10.362350453000344</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1361,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7.6213614791340341</v>
+        <v>10.417430063913322</v>
+      </c>
+      <c r="C88">
+        <v>10.353248634776657</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1372,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7.6088371293420849</v>
+        <v>10.410613055218473</v>
+      </c>
+      <c r="C89">
+        <v>10.3428723854471</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1383,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7.5944228021795217</v>
+        <v>10.415137844621061</v>
+      </c>
+      <c r="C90">
+        <v>10.337869552213547</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,7 +1394,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7.5759171739219164</v>
+        <v>10.419532521395054</v>
+      </c>
+      <c r="C91">
+        <v>10.337327199841393</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,7 +1405,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7.5707632037204853</v>
+        <v>10.426145355786471</v>
+      </c>
+      <c r="C92">
+        <v>10.334534826369927</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1416,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7.5492801640765652</v>
+        <v>10.438655771778832</v>
+      </c>
+      <c r="C93">
+        <v>10.325608227687859</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1427,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7.533253556612312</v>
+        <v>10.43046175361083</v>
+      </c>
+      <c r="C94">
+        <v>10.316975338848174</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,7 +1438,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7.5191542147238968</v>
+        <v>10.424218452043931</v>
+      </c>
+      <c r="C95">
+        <v>10.308267901754025</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,607 +1449,3715 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7.5056082031234856</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.423307091300444</v>
+      </c>
+      <c r="C96">
+        <v>10.301759612809779</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7.4921110027410087</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.419868332986711</v>
+      </c>
+      <c r="C97">
+        <v>10.298250027160602</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7.4762642833129078</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.411586765397075</v>
+      </c>
+      <c r="C98">
+        <v>10.296808768210303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7.464736407933378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.407579614342913</v>
+      </c>
+      <c r="C99">
+        <v>10.295043725150554</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7.4681392271234559</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.40268818422236</v>
+      </c>
+      <c r="C100">
+        <v>10.290439193340495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7.4586843369385436</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.39656932632527</v>
+      </c>
+      <c r="C101">
+        <v>10.285055933397111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7.4491038147449373</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.399952336216408</v>
+      </c>
+      <c r="C102">
+        <v>10.280890866185132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7.4357410128470267</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.402153987228578</v>
+      </c>
+      <c r="C103">
+        <v>10.27713050020215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7.4240603917873527</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.396064124911783</v>
+      </c>
+      <c r="C104">
+        <v>10.27675363278496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7.4206568056540938</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.397725254640832</v>
+      </c>
+      <c r="C105">
+        <v>10.275198849437055</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7.4086980806134237</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.402377612553664</v>
+      </c>
+      <c r="C106">
+        <v>10.271541209631989</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7.4021565440670223</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.397257871143351</v>
+      </c>
+      <c r="C107">
+        <v>10.267312468575856</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7.3948092477604179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.38917510107175</v>
+      </c>
+      <c r="C108">
+        <v>10.264207357909086</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7.3857488149176449</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.380927487266849</v>
+      </c>
+      <c r="C109">
+        <v>10.258691991870437</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7.3816584296953396</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.385204337789949</v>
+      </c>
+      <c r="C110">
+        <v>10.253423580545537</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7.3765753738616517</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.384460266886085</v>
+      </c>
+      <c r="C111">
+        <v>10.254370097971886</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7.3635313073567179</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.390025138228795</v>
+      </c>
+      <c r="C112">
+        <v>10.254324408942288</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7.3560332053087505</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.389180324487963</v>
+      </c>
+      <c r="C113">
+        <v>10.252922508443906</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7.3477375801006026</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.39476075290399</v>
+      </c>
+      <c r="C114">
+        <v>10.251594829379064</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7.3478671144498344</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.39864909580521</v>
+      </c>
+      <c r="C115">
+        <v>10.252719777617518</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7.3370635770438142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.391463701815024</v>
+      </c>
+      <c r="C116">
+        <v>10.253315627626634</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7.330893860690459</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.391715377519981</v>
+      </c>
+      <c r="C117">
+        <v>10.254297859757948</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7.3256077560332526</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.396996805603726</v>
+      </c>
+      <c r="C118">
+        <v>10.255405948897801</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7.3226959552139466</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.400238686566436</v>
+      </c>
+      <c r="C119">
+        <v>10.257626763283268</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7.3183429639529542</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.396467001004199</v>
+      </c>
+      <c r="C120">
+        <v>10.260168957785872</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7.3073352708677453</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.397553940891346</v>
+      </c>
+      <c r="C121">
+        <v>10.260917440107143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7.3030384988227501</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.395025737075343</v>
+      </c>
+      <c r="C122">
+        <v>10.262331925831306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7.3026091875140189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.39673776992921</v>
+      </c>
+      <c r="C123">
+        <v>10.266745928866618</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7.3019942409749907</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.397230875659611</v>
+      </c>
+      <c r="C124">
+        <v>10.26821668356531</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7.3022473639128167</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.398774093392394</v>
+      </c>
+      <c r="C125">
+        <v>10.260681929435384</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7.300130377859869</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.384900969217817</v>
+      </c>
+      <c r="C126">
+        <v>10.252707623981378</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7.3026978414714065</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.381930937775751</v>
+      </c>
+      <c r="C127">
+        <v>10.245445954217061</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7.2951500103547939</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.373581139589541</v>
+      </c>
+      <c r="C128">
+        <v>10.240513999761015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7.2918486191817529</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.374081615743544</v>
+      </c>
+      <c r="C129">
+        <v>10.229686578763154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7.2872996224150439</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.386340844450361</v>
+      </c>
+      <c r="C130">
+        <v>10.214786600826665</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7.2867526710013841</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.382945761557094</v>
+      </c>
+      <c r="C131">
+        <v>10.206446618718845</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7.2839883882099938</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.374596361935181</v>
+      </c>
+      <c r="C132">
+        <v>10.199166823848122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7.2819350967537835</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.384124668930053</v>
+      </c>
+      <c r="C133">
+        <v>10.195197222399514</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7.2788675844286548</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.382982374035779</v>
+      </c>
+      <c r="C134">
+        <v>10.194762936270223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7.2794298502443215</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.381754529196241</v>
+      </c>
+      <c r="C135">
+        <v>10.193218795339916</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7.2816243828723008</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.373671479213085</v>
+      </c>
+      <c r="C136">
+        <v>10.191615983271317</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7.2850059923024677</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.37415550524965</v>
+      </c>
+      <c r="C137">
+        <v>10.190366900873745</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7.2897882381889261</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.375358413030153</v>
+      </c>
+      <c r="C138">
+        <v>10.185929495044983</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7.2863851875219465</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.377797521305888</v>
+      </c>
+      <c r="C139">
+        <v>10.183346252853106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7.2818245137461881</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.383180462257055</v>
+      </c>
+      <c r="C140">
+        <v>10.182738499153729</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7.2763873298924704</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.377057684749159</v>
+      </c>
+      <c r="C141">
+        <v>10.181536714934005</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7.2738690567839877</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.38315425596973</v>
+      </c>
+      <c r="C142">
+        <v>10.181926094081492</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7.2723217898976591</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.382115348794498</v>
+      </c>
+      <c r="C143">
+        <v>10.182764738941321</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7.2725066719543134</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.375905411478811</v>
+      </c>
+      <c r="C144">
+        <v>10.182008242706521</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7.2793788480307349</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.388760109377552</v>
+      </c>
+      <c r="C145">
+        <v>10.180533300193837</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7.2767442892210958</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.380622565208753</v>
+      </c>
+      <c r="C146">
+        <v>10.181625285929345</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7.2700252834732497</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.374325129745097</v>
+      </c>
+      <c r="C147">
+        <v>10.181171581440635</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7.2693263510628148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.367904312377286</v>
+      </c>
+      <c r="C148">
+        <v>10.18125224093226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7.2744109615506423</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.360086045796487</v>
+      </c>
+      <c r="C149">
+        <v>10.180922334882052</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7.2705348383634689</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.358062790702956</v>
+      </c>
+      <c r="C150">
+        <v>10.180837176204783</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7.2733825038670235</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.348992463836776</v>
+      </c>
+      <c r="C151">
+        <v>10.179916345526756</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7.2728314404071455</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.343206560305449</v>
+      </c>
+      <c r="C152">
+        <v>10.179900898129901</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7.2749863692358687</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.35403047184878</v>
+      </c>
+      <c r="C153">
+        <v>10.17954256392744</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7.2777058639532752</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.35855630954044</v>
+      </c>
+      <c r="C154">
+        <v>10.181273326109242</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7.2768986736000114</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.363426373916617</v>
+      </c>
+      <c r="C155">
+        <v>10.182885993329801</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7.2771914071989707</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.349650677824521</v>
+      </c>
+      <c r="C156">
+        <v>10.183980456450533</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7.2752820022896056</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.34728380570003</v>
+      </c>
+      <c r="C157">
+        <v>10.185554972096799</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7.2732990941863287</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.351980730252267</v>
+      </c>
+      <c r="C158">
+        <v>10.187104778656263</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7.2688658512660247</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.354068576069217</v>
+      </c>
+      <c r="C159">
+        <v>10.188631554757816</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7.2726524174223757</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.355225799340442</v>
+      </c>
+      <c r="C160">
+        <v>10.190284829885874</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7.2733878537591554</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.353466673087611</v>
+      </c>
+      <c r="C161">
+        <v>10.191219842195423</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7.2740458880435028</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.347478537632178</v>
+      </c>
+      <c r="C162">
+        <v>10.192115464561423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7.2703100977088591</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.357388012948464</v>
+      </c>
+      <c r="C163">
+        <v>10.192778903714519</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7.2710412190868006</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.351306290698282</v>
+      </c>
+      <c r="C164">
+        <v>10.194888528948072</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7.2675839936352373</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.346338325450475</v>
+      </c>
+      <c r="C165">
+        <v>10.196793828251739</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7.2686439641929734</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.348222705362728</v>
+      </c>
+      <c r="C166">
+        <v>10.197416460435193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7.271529924856611</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.35627480150962</v>
+      </c>
+      <c r="C167">
+        <v>10.197506851013793</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7.2719208632927845</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.367013479165452</v>
+      </c>
+      <c r="C168">
+        <v>10.198539233875776</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7.2662642074621964</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.370225791325231</v>
+      </c>
+      <c r="C169">
+        <v>10.197765192820253</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7.2644406315905519</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.363173872849803</v>
+      </c>
+      <c r="C170">
+        <v>10.197248135410005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7.261390149377573</v>
+        <v>10.362834835349759</v>
+      </c>
+      <c r="C171">
+        <v>10.196133393231863</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>10.365994186295083</v>
+      </c>
+      <c r="C172">
+        <v>10.1961343479954</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>10.369825483489665</v>
+      </c>
+      <c r="C173">
+        <v>10.196117952789487</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>10.356501687398746</v>
+      </c>
+      <c r="C174">
+        <v>10.196286513586918</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>10.353702677766618</v>
+      </c>
+      <c r="C175">
+        <v>10.197565665291728</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>10.363205238860262</v>
+      </c>
+      <c r="C176">
+        <v>10.1996235566988</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>10.363945669069635</v>
+      </c>
+      <c r="C177">
+        <v>10.200784684674971</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>10.357667915312298</v>
+      </c>
+      <c r="C178">
+        <v>10.202056344567001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>10.356471605789476</v>
+      </c>
+      <c r="C179">
+        <v>10.202847138301513</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>10.359676326117869</v>
+      </c>
+      <c r="C180">
+        <v>10.2041147048377</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>10.352714253865447</v>
+      </c>
+      <c r="C181">
+        <v>10.20664738836215</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>10.356016467988754</v>
+      </c>
+      <c r="C182">
+        <v>10.20835332698814</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>10.351113419660603</v>
+      </c>
+      <c r="C183">
+        <v>10.211082236280506</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>10.347654585965886</v>
+      </c>
+      <c r="C184">
+        <v>10.213171510813128</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>10.355166441594887</v>
+      </c>
+      <c r="C185">
+        <v>10.214405612720759</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>10.343950271541747</v>
+      </c>
+      <c r="C186">
+        <v>10.214302801839629</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>10.330911847006639</v>
+      </c>
+      <c r="C187">
+        <v>10.213781959600272</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>10.328786711862506</v>
+      </c>
+      <c r="C188">
+        <v>10.21276903182614</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>10.321755558576678</v>
+      </c>
+      <c r="C189">
+        <v>10.21117565790281</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>10.319576296162676</v>
+      </c>
+      <c r="C190">
+        <v>10.210079043423818</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>10.323651566430337</v>
+      </c>
+      <c r="C191">
+        <v>10.209297495932827</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>10.331793516524534</v>
+      </c>
+      <c r="C192">
+        <v>10.210062386653727</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>10.336793738658628</v>
+      </c>
+      <c r="C193">
+        <v>10.211141895393286</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>10.33743331756512</v>
+      </c>
+      <c r="C194">
+        <v>10.211904013546565</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>10.345448645018742</v>
+      </c>
+      <c r="C195">
+        <v>10.21231690348511</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>10.337830655685019</v>
+      </c>
+      <c r="C196">
+        <v>10.21229521079634</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>10.334743059189673</v>
+      </c>
+      <c r="C197">
+        <v>10.213411843921385</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>10.324238262674974</v>
+      </c>
+      <c r="C198">
+        <v>10.214156634306233</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>10.326692147535345</v>
+      </c>
+      <c r="C199">
+        <v>10.215030083446006</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>10.325233788929575</v>
+      </c>
+      <c r="C200">
+        <v>10.215572867586765</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>10.321414390600189</v>
+      </c>
+      <c r="C201">
+        <v>10.216155085613673</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>10.317472575473881</v>
+      </c>
+      <c r="C202">
+        <v>10.21728978042141</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>10.323221778451295</v>
+      </c>
+      <c r="C203">
+        <v>10.218627597187782</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>10.329605485696263</v>
+      </c>
+      <c r="C204">
+        <v>10.219019901912656</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>10.331335318824431</v>
+      </c>
+      <c r="C205">
+        <v>10.217853399169154</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>10.326879792949544</v>
+      </c>
+      <c r="C206">
+        <v>10.217067418224813</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>10.316902800704366</v>
+      </c>
+      <c r="C207">
+        <v>10.217793126700728</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>10.318225419031055</v>
+      </c>
+      <c r="C208">
+        <v>10.218032274615666</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>10.325207063510904</v>
+      </c>
+      <c r="C209">
+        <v>10.216454554894703</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>10.316810264397953</v>
+      </c>
+      <c r="C210">
+        <v>10.215590275491611</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>10.321363277798978</v>
+      </c>
+      <c r="C211">
+        <v>10.214690647433242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>10.319136203839424</v>
+      </c>
+      <c r="C212">
+        <v>10.214942783114896</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>10.3169559776016</v>
+      </c>
+      <c r="C213">
+        <v>10.215448105499338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>10.312315565510858</v>
+      </c>
+      <c r="C214">
+        <v>10.215812149816948</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>10.313928296226527</v>
+      </c>
+      <c r="C215">
+        <v>10.21530169463959</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>10.313793076473576</v>
+      </c>
+      <c r="C216">
+        <v>10.213973495987105</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>10.314799350912537</v>
+      </c>
+      <c r="C217">
+        <v>10.212336876329777</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>10.316976578471449</v>
+      </c>
+      <c r="C218">
+        <v>10.208585019300276</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>10.32169877175731</v>
+      </c>
+      <c r="C219">
+        <v>10.203829181326746</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>10.326381843642457</v>
+      </c>
+      <c r="C220">
+        <v>10.200090109949342</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>10.326364561568099</v>
+      </c>
+      <c r="C221">
+        <v>10.199659572432395</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>10.3174930294222</v>
+      </c>
+      <c r="C222">
+        <v>10.200405858682744</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>10.307118311135712</v>
+      </c>
+      <c r="C223">
+        <v>10.199203431403738</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>10.316505822564773</v>
+      </c>
+      <c r="C224">
+        <v>10.197805246621519</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>10.310408186520572</v>
+      </c>
+      <c r="C225">
+        <v>10.195773135340524</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>10.319929718205394</v>
+      </c>
+      <c r="C226">
+        <v>10.193462162527856</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>10.309949619314246</v>
+      </c>
+      <c r="C227">
+        <v>10.196429307857601</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>10.306969409157253</v>
+      </c>
+      <c r="C228">
+        <v>10.196433203050558</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>10.300877701746961</v>
+      </c>
+      <c r="C229">
+        <v>10.193513773308172</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>10.296791785165439</v>
+      </c>
+      <c r="C230">
+        <v>10.182311161361868</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>10.289659831680112</v>
+      </c>
+      <c r="C231">
+        <v>10.174849243630005</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>10.291499640012731</v>
+      </c>
+      <c r="C232">
+        <v>10.168928584841625</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>10.302092711081416</v>
+      </c>
+      <c r="C233">
+        <v>10.166171939576897</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>10.309588454366754</v>
+      </c>
+      <c r="C234">
+        <v>10.163333880516769</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>10.301986741007111</v>
+      </c>
+      <c r="C235">
+        <v>10.16176792727472</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>10.302176833665323</v>
+      </c>
+      <c r="C236">
+        <v>10.161387097928248</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>10.292149129667459</v>
+      </c>
+      <c r="C237">
+        <v>10.161039759202771</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>10.298623000565874</v>
+      </c>
+      <c r="C238">
+        <v>10.16003045941833</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>10.297327571772012</v>
+      </c>
+      <c r="C239">
+        <v>10.157531726197101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>10.29286189017631</v>
+      </c>
+      <c r="C240">
+        <v>10.154233136244473</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>10.290697308345493</v>
+      </c>
+      <c r="C241">
+        <v>10.149966938296012</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>10.297936298990789</v>
+      </c>
+      <c r="C242">
+        <v>10.147807861357553</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>10.309389685351045</v>
+      </c>
+      <c r="C243">
+        <v>10.145634359013373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>10.297271651919127</v>
+      </c>
+      <c r="C244">
+        <v>10.143236697193981</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>10.296190475292525</v>
+      </c>
+      <c r="C245">
+        <v>10.141499579658609</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>10.28631209276363</v>
+      </c>
+      <c r="C246">
+        <v>10.139790300776523</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>10.282325130602745</v>
+      </c>
+      <c r="C247">
+        <v>10.138961230240609</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>10.284709216813495</v>
+      </c>
+      <c r="C248">
+        <v>10.137374241555385</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>10.294396127856396</v>
+      </c>
+      <c r="C249">
+        <v>10.136659785764348</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>10.292693482011167</v>
+      </c>
+      <c r="C250">
+        <v>10.135637464523425</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>10.292273095136879</v>
+      </c>
+      <c r="C251">
+        <v>10.133695268485107</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>10.290046649816384</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>10.280003140688391</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>10.284357929987209</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>10.285019958486281</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>10.274829454742848</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>10.286487680138277</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>10.288745889013944</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>10.284608898746802</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>10.278999378284789</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>10.284988946709191</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>10.288254505954285</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>10.286282454928605</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>10.287365248463665</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>10.272472086833131</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>10.271345290161831</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>10.273484358004255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>10.258585272467826</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>10.264397780699703</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>10.257483340450625</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>10.250356089758515</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>10.254613761729454</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>10.254218108480572</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>10.25618082013866</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>10.255765246935029</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>10.25627102816871</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>10.261065534007985</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>10.268803115792794</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>10.280294111960139</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>10.271126942215036</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>10.274317782046809</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>10.272340079925655</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>10.270713222791812</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>10.271302548527787</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>10.279391993228479</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>10.264018752492024</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>10.250334320846646</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>10.254321065989348</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>10.260069187286753</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>10.258642171852891</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>10.252547123928389</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>10.253560651826174</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>10.252748523460085</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>10.246051129256353</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>10.24692284853694</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>10.242966334722016</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>10.244037925226184</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>10.252724810933641</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>10.239623667661901</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>10.238719685854804</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>10.238463954889232</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>10.246965632365013</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>10.240899615801586</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>10.236545193290638</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>10.224746111297042</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>10.216503777483798</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>10.216366877286566</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>10.206275235329947</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>10.204676014258638</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>10.204216745251124</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>10.20405666955658</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>10.197159884971178</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>10.200403884513955</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>10.196089991714608</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>10.185839014744268</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>10.192093051590208</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>10.189509355481198</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>10.183509311757984</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>10.184507843295266</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>10.185704943483856</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>10.193038893445182</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>10.19952341269839</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>10.193664042024244</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>10.199296822265421</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>10.198758107152701</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>10.188040272762354</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>10.188338954553203</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>10.183263759819583</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>10.185588833161294</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>10.182483977048687</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>10.178767219279003</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>10.17210594707942</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>10.170555896356346</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>10.163243934156878</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>10.160985925021116</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>10.166110365859588</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>10.174496454752409</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>10.177326274384303</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>10.170701263906915</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>10.185680413987619</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>10.185509250789657</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>10.180380402600619</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>10.187048570804565</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>10.17415168127051</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>10.174182164492716</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>10.167810694612328</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>10.166006204006262</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>10.167436080174376</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>10.172253681030963</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>10.166366703003197</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>10.165469997618517</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>10.158169117746489</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>10.154527365486439</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>10.144455795578928</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>10.142200800064233</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>10.141969647795671</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>10.142302514751961</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>10.146052085216064</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>10.146465231265035</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>10.157445408392991</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>10.155895793074585</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>10.145380127649824</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>10.14606013021093</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>10.151121614803866</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>10.150110217204313</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>10.151932338527178</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>10.16509802357192</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>10.155190687324581</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>10.149223956299659</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>10.140432846476269</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>10.144630173176878</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>10.135567390012712</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>10.133561085418416</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>10.129252349644926</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>10.130458931783544</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>10.124208017629682</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>10.127264293554655</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>10.13550014768748</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>10.14096405006995</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>10.133725536697884</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>10.135747505400834</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>10.121303403959695</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>10.134567958659911</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>10.13936410814709</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>10.13745014491516</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>10.139326261346884</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>10.14653267803533</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>10.144559955449072</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>10.154193346430905</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>10.150782222757817</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>10.141041268963155</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>10.138315100417868</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>10.135263516031165</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>10.141116544964916</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>10.135069649175595</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>10.133893306581804</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>10.126825123380677</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>10.132270227155754</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>10.134978762969794</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>10.133980820626601</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>10.12943989872965</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>10.1267229993027</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>10.119780543062587</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>10.12312164791158</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>10.120108966363869</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>10.119080693887575</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>10.123019121257306</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>10.127511378760152</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>10.12089779628332</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>10.121770160812746</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>10.130994836889098</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>10.132283471246851</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>10.132220364268393</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>10.133599366479624</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>10.124798842700896</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>10.127071732278131</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>10.118760963401016</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>10.106973211965469</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>10.110498096607202</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>10.110354973622099</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>10.106737866866348</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>10.110898526939819</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>10.105962749654614</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>10.116320862899261</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>10.114839990355993</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>10.11572467678049</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>10.112454468894192</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>10.111689037579223</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>10.104570061975163</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>10.099835959069543</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>10.096658151356651</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>10.090602001925591</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>10.095538270930753</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>10.094085284821443</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>10.103781131803261</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>10.095867362223833</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>10.091812778196784</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>10.088152466129895</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>10.096644875228733</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>10.092658679650054</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>10.091018709582988</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>10.090803578558791</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>10.082980988785499</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>10.083263103512689</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>10.087438464974053</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>10.08316544239864</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>10.086693526016065</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>10.092157307101361</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>10.085945184174678</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>10.083611549848518</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>10.095041197254762</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>10.089353873225866</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>10.089084070061766</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>10.091668254535236</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>10.083339841054253</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>10.087722362619646</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>10.082302777565642</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>10.088905194699567</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>10.080870369572995</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>10.083646196640336</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>10.082164265488888</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>10.071006225223387</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>10.066452626655103</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>10.062954807239208</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>10.066024454143875</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>10.068311492116429</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>10.07282937558686</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>10.071884836673895</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>10.072777929663701</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>10.06597897978147</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>10.068391302616966</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>10.070992300295595</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>10.072494580235881</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>10.068999368260071</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>10.067164333148089</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>10.076887363977614</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>10.073535707325092</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>10.080251646159345</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>10.073918555018709</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>10.082806199252275</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>10.07498166207605</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>10.071204600247615</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>10.070408678514921</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>10.071818182085474</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>10.062459162483487</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>10.063123179020963</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>10.072162472314709</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>10.065117043714851</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>10.070273306592641</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>10.076689948098233</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>10.085767087952073</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>10.080089899059812</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>10.081649240703729</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>10.08089326965483</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>10.081053418624654</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>10.082840712628288</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>10.079991312325816</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>10.081256123842607</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>10.080341951295971</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>10.077365854374037</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>10.076453638813462</v>
       </c>
     </row>
   </sheetData>
